--- a/genotypic-data/allele-calls.xlsx
+++ b/genotypic-data/allele-calls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\web-intellij\germinate\datatemplates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr41756\workspaces\misc\germinate-data-templates\genotypic-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7FAD23-D7DC-4560-A917-59CF01D7D266}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE4BD51-FF25-4042-B58B-C6F10040DFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9345" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29610" yWindow="885" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="103">
   <si>
     <t>Contact</t>
   </si>
@@ -302,6 +302,54 @@
   </si>
   <si>
     <t>The 2 letter country code of the institution (ISO 3166-1 alpha-2).</t>
+  </si>
+  <si>
+    <t>Investigation Title</t>
+  </si>
+  <si>
+    <t>Human-readable string summarising the investigation.</t>
+  </si>
+  <si>
+    <t>Investigation Description</t>
+  </si>
+  <si>
+    <t>Human-readable text describing the investigation in more detail.</t>
+  </si>
+  <si>
+    <t>Investigation unique ID</t>
+  </si>
+  <si>
+    <t>Identifier comprising the unique name of the institution/database hosting the submission of the investigation data, and the accession number of the investigation in that institution.</t>
+  </si>
+  <si>
+    <t>Associated data file link</t>
+  </si>
+  <si>
+    <t>Link to the data file (or digital object) in a public database or in a persistent institutional repository; or identifier of the data file when submitted together with the MIAPPE submission.</t>
+  </si>
+  <si>
+    <t>Associated data file description</t>
+  </si>
+  <si>
+    <t>Description of the format of the data file. May be a standard file format name, or a description of organization of the data in a tabular file.</t>
+  </si>
+  <si>
+    <t>Associated data file version</t>
+  </si>
+  <si>
+    <t>The version of the dataset (the actual data).</t>
+  </si>
+  <si>
+    <t>Contributor role</t>
+  </si>
+  <si>
+    <t>Contributor ID</t>
+  </si>
+  <si>
+    <t>Type of contribution of the person to the investigation (e.g. data submitter; author; corresponding author)</t>
+  </si>
+  <si>
+    <t>An identifier for the data submitter. If that submitter is an individual, ORCID identifiers are recommended.</t>
   </si>
 </sst>
 </file>
@@ -395,7 +443,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -447,6 +495,12 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -454,49 +508,7 @@
     <cellStyle name="Normal 4" xfId="2" xr:uid="{37DE6626-7AEA-474F-A6DF-21A5375857BA}"/>
     <cellStyle name="Warning Text" xfId="3" builtinId="11"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <font>
         <b val="0"/>
@@ -536,6 +548,86 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -615,8 +707,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="17"/>
-      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -631,12 +723,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{899D81BA-0D15-4B0E-8198-E4AD18E04F51}" name="Table7" displayName="Table7" ref="A1:C16" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:C16" xr:uid="{C82FB4AE-F346-4BB9-8666-4FFBF429A944}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{899D81BA-0D15-4B0E-8198-E4AD18E04F51}" name="Table7" displayName="Table7" ref="A1:C22" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:C22" xr:uid="{C82FB4AE-F346-4BB9-8666-4FFBF429A944}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3F717630-B083-4BCD-9DDB-D3C1A46061E9}" name="LABEL" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{4459234A-B162-442C-A2B8-269CC581C79D}" name="DEFINITION" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{FD356382-869F-4EB0-A6F1-D92F30176135}" name="VALUE" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{3F717630-B083-4BCD-9DDB-D3C1A46061E9}" name="LABEL" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{4459234A-B162-442C-A2B8-269CC581C79D}" name="DEFINITION" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{FD356382-869F-4EB0-A6F1-D92F30176135}" name="VALUE" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -658,16 +750,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B17E13DC-A1BE-4337-94A3-20CE5E46A4FF}" name="Table8" displayName="Table8" ref="A1:G2" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:G2" xr:uid="{2EA4EB1B-CF05-4161-8A4F-6C18B2873691}"/>
-  <tableColumns count="7">
-    <tableColumn id="2" xr3:uid="{54E2AD32-A903-4B29-B50E-E1D57C66A08F}" name="Last Name" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{2E4EEAB3-8C03-4513-BE97-157058BA75AA}" name="First Name" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{EB58BCE2-1172-40DD-9445-19879EBED028}" name="Email" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{4E4F5E9A-70D3-45CA-977D-7BF61F7532EB}" name="Phone" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{EBFA69FE-7ABC-4DBF-BE40-87A581A669D7}" name="Contributor" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{551649BF-DFB9-4A79-9AB6-C84CF5A872B4}" name="Address" dataDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{D291AC4F-D5AA-4E81-BCDB-9DC062C684E4}" name="Country" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B17E13DC-A1BE-4337-94A3-20CE5E46A4FF}" name="Table8" displayName="Table8" ref="A1:I2" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:I2" xr:uid="{2EA4EB1B-CF05-4161-8A4F-6C18B2873691}"/>
+  <tableColumns count="9">
+    <tableColumn id="2" xr3:uid="{54E2AD32-A903-4B29-B50E-E1D57C66A08F}" name="Last Name" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{2E4EEAB3-8C03-4513-BE97-157058BA75AA}" name="First Name" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{D436E300-DBD9-48A7-96C1-6BEF5EF82869}" name="Contributor role" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{614AAE99-1D16-40C6-878F-52E25957F2A8}" name="Contributor ID" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{EB58BCE2-1172-40DD-9445-19879EBED028}" name="Email" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{4E4F5E9A-70D3-45CA-977D-7BF61F7532EB}" name="Phone" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{EBFA69FE-7ABC-4DBF-BE40-87A581A669D7}" name="Contributor" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{551649BF-DFB9-4A79-9AB6-C84CF5A872B4}" name="Address" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{D291AC4F-D5AA-4E81-BCDB-9DC062C684E4}" name="Country" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -965,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,96 +1183,155 @@
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="18"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="18"/>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="18"/>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="18"/>
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="18"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="18"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B19" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="18"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
+      <c r="C19" s="18"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B20" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="18"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B21" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="18"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="C21" s="18"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B22" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="17"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="C22" s="17"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="13"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="C25" s="6"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B31" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C31" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="containsBlanks" dxfId="1" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1233,66 +1386,78 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD428ACF-6755-4DFE-905C-713C69538445}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.28515625" customWidth="1"/>
-    <col min="2" max="2" width="39.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="2" max="4" width="39.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.42578125" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1308,7 +1473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1334,7 +1499,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/genotypic-data/allele-calls.xlsx
+++ b/genotypic-data/allele-calls.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sr41756\workspaces\misc\germinate-data-templates\genotypic-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EE4BD51-FF25-4042-B58B-C6F10040DFEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BA5BC5-9E78-4E74-9AA3-47272AA35BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29610" yWindow="885" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="METADATA" sheetId="1" r:id="rId1"/>
-    <sheet name="LOCATION" sheetId="4" r:id="rId2"/>
-    <sheet name="COLLABORATORS" sheetId="5" r:id="rId3"/>
-    <sheet name="DATA" sheetId="2" r:id="rId4"/>
-    <sheet name="DATA_EXAMPLE" sheetId="3" r:id="rId5"/>
+    <sheet name="DATA" sheetId="2" r:id="rId2"/>
+    <sheet name="ATTRIBUTES" sheetId="6" r:id="rId3"/>
+    <sheet name="COLLABORATORS" sheetId="5" r:id="rId4"/>
+    <sheet name="LOCATION" sheetId="4" r:id="rId5"/>
+    <sheet name="DATA_EXAMPLE" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="110">
   <si>
     <t>Contact</t>
   </si>
@@ -47,9 +48,6 @@
   </si>
   <si>
     <t>Additional Information</t>
-  </si>
-  <si>
-    <t>Please include any additional information that details how this experiment was carried out in a text or Word document and send along with this template.</t>
   </si>
   <si>
     <t>A</t>
@@ -350,6 +348,30 @@
   </si>
   <si>
     <t>An identifier for the data submitter. If that submitter is an individual, ORCID identifiers are recommended.</t>
+  </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>ValidTypes</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>categorical</t>
+  </si>
+  <si>
+    <t>Please include any additional information that details how this experiment was carried out in a text or Word document and send along with this template. Mandatory fields are highlighted in yellow.</t>
   </si>
 </sst>
 </file>
@@ -510,6 +532,22 @@
   </cellStyles>
   <dxfs count="20">
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -548,30 +586,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -584,10 +598,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -683,6 +698,13 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -723,18 +745,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{899D81BA-0D15-4B0E-8198-E4AD18E04F51}" name="Table7" displayName="Table7" ref="A1:C22" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{899D81BA-0D15-4B0E-8198-E4AD18E04F51}" name="Table7" displayName="Table7" ref="A1:C22" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A1:C22" xr:uid="{C82FB4AE-F346-4BB9-8666-4FFBF429A944}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3F717630-B083-4BCD-9DDB-D3C1A46061E9}" name="LABEL" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{4459234A-B162-442C-A2B8-269CC581C79D}" name="DEFINITION" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{FD356382-869F-4EB0-A6F1-D92F30176135}" name="VALUE" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{3F717630-B083-4BCD-9DDB-D3C1A46061E9}" name="LABEL" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{4459234A-B162-442C-A2B8-269CC581C79D}" name="DEFINITION" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{FD356382-869F-4EB0-A6F1-D92F30176135}" name="VALUE" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C42421F5-3092-42FC-9D5E-D1D4D8B147C9}" name="Table5" displayName="Table5" ref="A3:A4" insertRow="1" totalsRowShown="0" headerRowCellStyle="Warning Text">
+  <autoFilter ref="A3:A4" xr:uid="{388CDF32-3416-4F58-BD1E-AF0ACF62F192}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{2A4EC3C5-80D3-40BA-BB1A-F78FFE0D4110}" name="Lines/Markers"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{29577549-5397-4B86-8399-0C7AEB16E0AA}" name="Table14" displayName="Table14" ref="A1:C2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{29577549-5397-4B86-8399-0C7AEB16E0AA}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A60823D0-CB17-4826-BA30-B374DC7DA853}" name="Attribute"/>
+    <tableColumn id="3" xr3:uid="{4BA05D4B-0F0A-4725-8798-C3C31A371438}" name="Type"/>
+    <tableColumn id="2" xr3:uid="{E5ACC0FF-E431-4D38-BE48-C9CC042C9D00}" name="Value"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B17E13DC-A1BE-4337-94A3-20CE5E46A4FF}" name="Table8" displayName="Table8" ref="A1:I2" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I2" xr:uid="{2EA4EB1B-CF05-4161-8A4F-6C18B2873691}"/>
+  <tableColumns count="9">
+    <tableColumn id="2" xr3:uid="{54E2AD32-A903-4B29-B50E-E1D57C66A08F}" name="Last Name" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{2E4EEAB3-8C03-4513-BE97-157058BA75AA}" name="First Name" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{D436E300-DBD9-48A7-96C1-6BEF5EF82869}" name="Contributor role" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{614AAE99-1D16-40C6-878F-52E25957F2A8}" name="Contributor ID" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{EB58BCE2-1172-40DD-9445-19879EBED028}" name="Email" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{4E4F5E9A-70D3-45CA-977D-7BF61F7532EB}" name="Phone" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{EBFA69FE-7ABC-4DBF-BE40-87A581A669D7}" name="Contributor" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{551649BF-DFB9-4A79-9AB6-C84CF5A872B4}" name="Address" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D291AC4F-D5AA-4E81-BCDB-9DC062C684E4}" name="Country" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C1BD76FD-8FFC-4004-830B-693EDDAB3AE1}" name="Table9" displayName="Table9" ref="A1:F2" totalsRowShown="0">
   <autoFilter ref="A1:F2" xr:uid="{2BA9E1B0-E145-4FA2-84BC-627CE2AE7398}"/>
   <tableColumns count="6">
@@ -749,35 +811,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B17E13DC-A1BE-4337-94A3-20CE5E46A4FF}" name="Table8" displayName="Table8" ref="A1:I2" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:I2" xr:uid="{2EA4EB1B-CF05-4161-8A4F-6C18B2873691}"/>
-  <tableColumns count="9">
-    <tableColumn id="2" xr3:uid="{54E2AD32-A903-4B29-B50E-E1D57C66A08F}" name="Last Name" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{2E4EEAB3-8C03-4513-BE97-157058BA75AA}" name="First Name" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{D436E300-DBD9-48A7-96C1-6BEF5EF82869}" name="Contributor role" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{614AAE99-1D16-40C6-878F-52E25957F2A8}" name="Contributor ID" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{EB58BCE2-1172-40DD-9445-19879EBED028}" name="Email" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{4E4F5E9A-70D3-45CA-977D-7BF61F7532EB}" name="Phone" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{EBFA69FE-7ABC-4DBF-BE40-87A581A669D7}" name="Contributor" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{551649BF-DFB9-4A79-9AB6-C84CF5A872B4}" name="Address" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{D291AC4F-D5AA-4E81-BCDB-9DC062C684E4}" name="Country" dataDxfId="4"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C42421F5-3092-42FC-9D5E-D1D4D8B147C9}" name="Table5" displayName="Table5" ref="A3:A4" insertRow="1" totalsRowShown="0" headerRowCellStyle="Warning Text">
-  <autoFilter ref="A3:A4" xr:uid="{388CDF32-3416-4F58-BD1E-AF0ACF62F192}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{2A4EC3C5-80D3-40BA-BB1A-F78FFE0D4110}" name="Lines/Markers"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:K11" totalsRowShown="0">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Lines/Markers"/>
@@ -1074,102 +1108,102 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>47</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>48</v>
       </c>
       <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="C11" s="8"/>
     </row>
@@ -1178,70 +1212,70 @@
         <v>0</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="22" t="s">
         <v>87</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>88</v>
       </c>
       <c r="C13" s="18"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>89</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>90</v>
       </c>
       <c r="C14" s="18"/>
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>91</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>92</v>
       </c>
       <c r="C15" s="18"/>
     </row>
     <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>93</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>94</v>
       </c>
       <c r="C16" s="18"/>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="22" t="s">
         <v>95</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>96</v>
       </c>
       <c r="C17" s="18"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>97</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>98</v>
       </c>
       <c r="C18" s="18"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="18"/>
     </row>
@@ -1250,25 +1284,25 @@
         <v>2</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C20" s="18"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="17"/>
     </row>
@@ -1287,7 +1321,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="6"/>
     </row>
@@ -1306,12 +1340,12 @@
       <c r="B28" s="14"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="C29" s="6"/>
     </row>
@@ -1325,13 +1359,13 @@
         <v>4</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C31" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="1">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1344,38 +1378,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD4C650-208D-4BA9-BDC7-3CEA3A5BADFC}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="containsBlanks" dxfId="11" priority="1">
+      <formula>LEN(TRIM(A4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ISO 3166-1 alpha-2" prompt="https://en.wikipedia.org/wiki/ISO_3166-1_alpha-2_x000a_" sqref="C1" xr:uid="{65AFC8FE-984A-436F-938B-5FCABFF18699}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Lines/Markers" prompt="Lines running across rows and markers running down columns." sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1385,6 +1422,68 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD4B024-EABF-4FD3-9AD9-676301697CED}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{46EB9FD0-BF46-4148-9328-13481A736B65}">
+      <formula1>$H$2:$H$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD428ACF-6755-4DFE-905C-713C69538445}">
   <dimension ref="A1:I2"/>
   <sheetViews>
@@ -1405,60 +1504,60 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>99</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="I1" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1469,42 +1568,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A3"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD4C650-208D-4BA9-BDC7-3CEA3A5BADFC}">
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>1</v>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(A4))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Lines/Markers" prompt="Lines running across rows and markers running down columns." sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ISO 3166-1 alpha-2" prompt="https://en.wikipedia.org/wiki/ISO_3166-1_alpha-2_x000a_" sqref="C1" xr:uid="{65AFC8FE-984A-436F-938B-5FCABFF18699}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1513,7 +1609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="4"/>
@@ -1533,7 +1629,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1">
         <v>1</v>
@@ -1568,7 +1664,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -1606,284 +1702,284 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
         <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="K5" t="s">
         <v>8</v>
-      </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
         <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
         <v>9</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
         <v>8</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>8</v>
-      </c>
       <c r="J8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
       <c r="J10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
         <v>8</v>
       </c>
-      <c r="F11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
       <c r="H11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
